--- a/Audit_SEO.xlsx
+++ b/Audit_SEO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="259">
   <si>
     <t xml:space="preserve">      RECOMMANDATIONS EN VUE DE L’AMELIORATION DU REFERENCEMENT</t>
   </si>
@@ -207,7 +207,7 @@
     <t xml:space="preserve">Liste 2 à supprimer car pas de qualités Bloc « partenaires : euh ? Pas cohérent</t>
   </si>
   <si>
-    <t xml:space="preserve">Texte suffisament long</t>
+    <t xml:space="preserve">Texte suffisamment long</t>
   </si>
   <si>
     <t xml:space="preserve">KO : à revoir </t>
@@ -216,7 +216,7 @@
     <t xml:space="preserve">Image qui reprennent du texte</t>
   </si>
   <si>
-    <t xml:space="preserve">A suppruimer. Le texte doit être en dur dans le code pour le référencement</t>
+    <t xml:space="preserve">A supprimer. Le texte doit être en dur dans le code pour le référencement</t>
   </si>
   <si>
     <t xml:space="preserve">Meta Keywords</t>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t xml:space="preserve">trop et inutiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte suffisament long</t>
   </si>
   <si>
     <t xml:space="preserve">à remplir</t>
@@ -562,7 +565,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">#F3976C (orange) vs blanc = 2,22 → insuf. </t>
+      <t xml:space="preserve">#F3976C (orange) vs blanc = 2,22 → insuffisant</t>
     </r>
   </si>
   <si>
@@ -823,16 +826,19 @@
     <t xml:space="preserve">sitemap</t>
   </si>
   <si>
-    <t xml:space="preserve">mentions legales + cgu ?</t>
+    <t xml:space="preserve">Créer une page mentions legales et cgu </t>
   </si>
   <si>
     <t xml:space="preserve">Créer une page à propos</t>
   </si>
   <si>
-    <t xml:space="preserve">Créer pages partenaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">données structurées sur pages contact</t>
+    <t xml:space="preserve">Créer page partenaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données structurées sur pages contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramétrer le cache</t>
   </si>
   <si>
     <t xml:space="preserve">Balise title</t>
@@ -884,6 +890,9 @@
   </si>
   <si>
     <t xml:space="preserve">Avant optimisation : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après optimisation</t>
   </si>
   <si>
     <t xml:space="preserve">Gtmetrix</t>
@@ -1146,7 +1155,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,7 +1165,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
     <fill>
@@ -1191,6 +1200,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE8F2A1"/>
         <bgColor rgb="FFDDE8CB"/>
       </patternFill>
@@ -1198,11 +1213,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1260,10 +1275,31 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1292,7 +1328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1381,7 +1417,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1409,10 +1445,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1429,44 +1461,76 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1477,7 +1541,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1535,8 +1599,8 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFEEEEEE"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF2A6099"/>
@@ -1589,9 +1653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>136440</xdr:colOff>
+      <xdr:colOff>136080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1600,13 +1664,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="35192" t="404" r="35214" b="0"/>
+        <a:srcRect l="35197" t="404" r="35219" b="0"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26280" y="0"/>
-          <a:ext cx="668880" cy="696960"/>
+          <a:ext cx="668520" cy="696600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,9 +1696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1643,13 +1707,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="35192" t="404" r="35214" b="0"/>
+        <a:srcRect l="35197" t="404" r="35219" b="0"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="360"/>
-          <a:ext cx="650880" cy="685440"/>
+          <a:ext cx="650520" cy="685080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1675,9 +1739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
+      <xdr:colOff>7560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1686,13 +1750,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="35192" t="404" r="35214" b="0"/>
+        <a:srcRect l="35197" t="404" r="35219" b="0"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="669240" cy="710640"/>
+          <a:ext cx="668880" cy="710280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1718,9 +1782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>738720</xdr:colOff>
+      <xdr:colOff>738360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1734,7 +1798,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="812880"/>
-          <a:ext cx="5610240" cy="3297240"/>
+          <a:ext cx="5609880" cy="3296880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,9 +1819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>785520</xdr:colOff>
+      <xdr:colOff>785160</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1771,7 +1835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9542880"/>
-          <a:ext cx="6469920" cy="5414760"/>
+          <a:ext cx="6469560" cy="5414400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1792,9 +1856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>800640</xdr:colOff>
+      <xdr:colOff>800280</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1808,7 +1872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4690800"/>
-          <a:ext cx="6485040" cy="4486320"/>
+          <a:ext cx="6484680" cy="4485960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1830,11 +1894,11 @@
   </sheetPr>
   <dimension ref="B1:F109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
@@ -2288,8 +2352,8 @@
   </sheetPr>
   <dimension ref="A2:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2792,11 +2856,11 @@
   </sheetPr>
   <dimension ref="B1:F90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.43"/>
@@ -2867,7 +2931,7 @@
       <c r="D13" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="22" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2875,7 +2939,7 @@
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="16" t="s">
@@ -2887,13 +2951,13 @@
       <c r="D15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="16" t="s">
@@ -2905,13 +2969,13 @@
       <c r="D17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="29"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="16" t="s">
@@ -2923,32 +2987,32 @@
       <c r="D19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="29"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="16"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -2957,13 +3021,13 @@
       <c r="D23" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="16" t="s">
@@ -2975,13 +3039,13 @@
       <c r="D25" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="29"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="29"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="16" t="s">
@@ -2993,16 +3057,16 @@
       <c r="D27" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -3011,13 +3075,13 @@
       <c r="D29" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="16" t="s">
@@ -3029,13 +3093,13 @@
       <c r="D31" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="29"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="16" t="s">
@@ -3047,17 +3111,17 @@
       <c r="D33" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="29"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="16" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>8</v>
@@ -3065,25 +3129,25 @@
       <c r="D35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="29"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="29"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="29"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="29"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="16" t="s">
@@ -3093,63 +3157,63 @@
         <v>37</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="29"/>
+        <v>109</v>
+      </c>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="29"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="30" t="s">
         <v>110</v>
       </c>
+      <c r="C41" s="29" t="s">
+        <v>111</v>
+      </c>
       <c r="D41" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="29"/>
+        <v>112</v>
+      </c>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="16"/>
-      <c r="C42" s="30"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="29"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="29"/>
+        <v>114</v>
+      </c>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="29"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="32" t="s">
+      <c r="B45" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="C45" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="29"/>
+      <c r="D45" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3273,335 +3337,478 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:AW65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="33" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="33" width="57.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="33" width="60.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="33" width="56.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="33" width="38.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="4.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="57.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="32" width="60.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="32" width="56.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="32" width="38.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="33" width="12.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="33" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="8" style="33" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="50" style="32" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="34" t="s">
         <v>123</v>
       </c>
+      <c r="G1" s="35" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>129</v>
       </c>
+      <c r="F2" s="39" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>130</v>
+      <c r="A3" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="E3" s="40" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="128.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="F3" s="39" t="s">
         <v>136</v>
       </c>
+    </row>
+    <row r="4" customFormat="false" ht="124.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="36" t="s">
+        <v>137</v>
+      </c>
       <c r="B4" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>139</v>
       </c>
+      <c r="D4" s="40" t="s">
+        <v>140</v>
+      </c>
       <c r="E4" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="39" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="93.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="F4" s="40" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36" t="s">
+        <v>143</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="E5" s="40" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="128.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="F5" s="41" t="s">
         <v>147</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="124.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="36" t="s">
+        <v>148</v>
+      </c>
       <c r="B6" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="40" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+      <c r="F6" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="33" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36" t="s">
         <v>154</v>
       </c>
+      <c r="B7" s="38" t="s">
+        <v>155</v>
+      </c>
       <c r="C7" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="40" t="s">
         <v>158</v>
       </c>
+      <c r="F7" s="40" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="36" t="s">
         <v>160</v>
       </c>
+      <c r="B8" s="38" t="s">
+        <v>161</v>
+      </c>
       <c r="C8" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="40" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="93.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+      <c r="F8" s="40" t="s">
         <v>165</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36" t="s">
+        <v>166</v>
+      </c>
       <c r="B9" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="D9" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="E9" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
-        <v>170</v>
+      <c r="A10" s="36" t="s">
+        <v>171</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="D10" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
-        <v>174</v>
+      <c r="A11" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>65</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>175</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D11" s="38"/>
       <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
-        <v>176</v>
+      <c r="A12" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>179</v>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="36" t="s">
         <v>181</v>
       </c>
+      <c r="B13" s="38" t="s">
+        <v>182</v>
+      </c>
       <c r="C13" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="E13" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="169.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="C14" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="D14" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="43" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="37"/>
-    </row>
-    <row r="16" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="43" t="s">
+      <c r="F14" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="43" t="s">
+    </row>
+    <row r="15" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" s="47" customFormat="true" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="33"/>
+      <c r="B16" s="45" t="s">
         <v>192</v>
       </c>
+      <c r="C16" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="33"/>
+      <c r="AS16" s="33"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="33"/>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="33" t="s">
-        <v>193</v>
-      </c>
+      <c r="A17" s="33"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="33" t="s">
-        <v>194</v>
-      </c>
+      <c r="A18" s="33"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="33" t="s">
-        <v>195</v>
-      </c>
+      <c r="A19" s="33"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="33" t="s">
-        <v>196</v>
-      </c>
+      <c r="A20" s="33"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="39" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="48" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0"/>
-    </row>
+      <c r="D21" s="48"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="33"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="33"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3619,85 +3826,85 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="140.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>200</v>
+      <c r="A1" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="51" t="s">
         <v>201</v>
       </c>
+      <c r="B2" s="52" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>203</v>
+      <c r="A3" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>205</v>
+      <c r="A4" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>207</v>
+      <c r="A5" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>209</v>
+      <c r="A6" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>211</v>
+      <c r="A7" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="45" t="s">
         <v>212</v>
       </c>
+      <c r="B8" s="52" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="45"/>
+      <c r="B9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="45"/>
+      <c r="B10" s="52"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3715,10 +3922,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3726,25 +3933,31 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="46" width="1.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="53" width="1.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="A1" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3769,11 +3982,11 @@
   </sheetPr>
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.88"/>
@@ -3781,91 +3994,91 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3886,182 +4099,182 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="55" t="s">
         <v>123</v>
       </c>
+      <c r="F1" s="55" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="50" t="n">
+      <c r="A2" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" s="50" t="n">
+        <v>240</v>
+      </c>
+      <c r="E3" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="50" t="n">
+        <v>242</v>
+      </c>
+      <c r="E4" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="50" t="n">
+        <v>243</v>
+      </c>
+      <c r="E5" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="50" t="n">
+        <v>246</v>
+      </c>
+      <c r="E6" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="E7" s="50" t="n">
+        <v>247</v>
+      </c>
+      <c r="E7" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="50" t="n">
+        <v>248</v>
+      </c>
+      <c r="E8" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" s="50" t="n">
+        <v>250</v>
+      </c>
+      <c r="E9" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="50" t="n">
+        <v>252</v>
+      </c>
+      <c r="E10" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" s="50" t="n">
+        <v>255</v>
+      </c>
+      <c r="E11" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" s="50" t="n">
+        <v>257</v>
+      </c>
+      <c r="E12" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="E13" s="50" t="n">
+        <v>258</v>
+      </c>
+      <c r="E13" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="50" t="n">
+      <c r="E14" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="50" t="n">
+      <c r="E15" s="57" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/Audit_SEO.xlsx
+++ b/Audit_SEO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Site" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,6 @@
     <sheet name="Complément d'info" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Résultats test" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="A faire" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="draft" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="245">
   <si>
     <t xml:space="preserve">      RECOMMANDATIONS EN VUE DE L’AMELIORATION DU REFERENCEMENT</t>
   </si>
@@ -79,7 +78,7 @@
     <t xml:space="preserve">Vitesse du site correcte</t>
   </si>
   <si>
-    <t xml:space="preserve">Amélioration à prévoir (cf. audit)</t>
+    <t xml:space="preserve">Amélioration à prévoir (2,8s, cf. audit)</t>
   </si>
   <si>
     <t xml:space="preserve">Site responsive</t>
@@ -111,7 +110,13 @@
 Sitemap dans Search Console</t>
   </si>
   <si>
-    <t xml:space="preserve">contraste</t>
+    <t xml:space="preserve">Contraste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les rations ne sont pas toujours OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier les couleurs afin de les rendre accesssibles</t>
   </si>
   <si>
     <t xml:space="preserve">URL: index.html</t>
@@ -189,7 +194,7 @@
     <t xml:space="preserve">Présence d'au moins 1 image avec balise alt</t>
   </si>
   <si>
-    <t xml:space="preserve">Alt = pourri (l144)</t>
+    <t xml:space="preserve">Alt = trop long (l144)</t>
   </si>
   <si>
     <t xml:space="preserve">Présence de liens internes</t>
@@ -271,12 +276,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;li&gt;&lt;/li&gt; inutile.  il faut éviter les doublons. Le code ne doit pas se répéter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l48 c’est quoi ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">page2 &amp;gt;</t>
   </si>
   <si>
     <t xml:space="preserve">l124 les espacements se font en CSS</t>
@@ -438,7 +437,8 @@
   </si>
   <si>
     <t xml:space="preserve">title :
-Description :</t>
+Description :
+Robot</t>
   </si>
   <si>
     <t xml:space="preserve">Ces 2 balises sont vides. </t>
@@ -502,7 +502,43 @@
     <t xml:space="preserve">Renseigner ces 2 balises</t>
   </si>
   <si>
-    <t xml:space="preserve">#3</t>
+    <t xml:space="preserve">#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L10 : appelle fichier qui n’existe pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier le lien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cela va améliorer le temps de chargement et le responsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head : lang=default + P2 L71 : le message d’erreur du formulaire est en anglais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déclarer la langue permet d’améliorer le référencement et permet aussi au nav d’adapter les polices.
+La langue utilisée dans les messages de retour du formulaire doivent être :
+- identique à la langue déclarée 
+- déclarée dans la balise parente si elle est différente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'utilité de l'étiquetage du langage est devenue évidente au cours des dernières années à mesure que les technologies ont évolué, évolution qui se poursuivra dans le futur. Dans bien des cas, ces applications peuvent ne pas être importantes à vos yeux lorsque vous créez votre contenu pour la première fois. Vous les apprécierez avec le temps. Cependant, c'est un cercle vicieux. Les personnes qui n'utilisent pas les applications de l'information du langage ne fournissent pas d'information sur la langue de contenu. Les applications liées au langage s'utilisent encore peu pour que l'information ne soit largement appliquée aux contenus. Cette situation peut être renversée par les auteurs de contenu lorsqu'ils assurent que l'information sur la langue est inéluctable. Plus il y a de contenu étiqueté convenablement, plus des applications utiles et convaincantes comme celles-ci seront appréciées. Il est en général facile d'ajouter de l'information sur la langue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traduire ce message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7</t>
   </si>
   <si>
     <t xml:space="preserve">Structurer le contenu</t>
@@ -522,7 +558,7 @@
     <t xml:space="preserve">Modifier ces balises en réorganisant le contenu et reprendre leur intitulé</t>
   </si>
   <si>
-    <t xml:space="preserve">#4</t>
+    <t xml:space="preserve">#8</t>
   </si>
   <si>
     <r>
@@ -543,7 +579,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">#F3976C (orange)</t>
+      <t xml:space="preserve">#F3976C (orange) et taille des polices de certains texte</t>
     </r>
   </si>
   <si>
@@ -578,7 +614,7 @@
     <t xml:space="preserve">Rempl par #bd460f /ex</t>
   </si>
   <si>
-    <t xml:space="preserve">#5</t>
+    <t xml:space="preserve">#9</t>
   </si>
   <si>
     <t xml:space="preserve">Images</t>
@@ -633,7 +669,7 @@
     <t xml:space="preserve">Il faut redimensionner, compresser et modifier format des images</t>
   </si>
   <si>
-    <t xml:space="preserve">#6</t>
+    <t xml:space="preserve">#10</t>
   </si>
   <si>
     <t xml:space="preserve">Bonne pratique</t>
@@ -651,7 +687,7 @@
     <t xml:space="preserve">Les mots clés ne doivent pas être « masqués » dans un coin de la page mais intégrés dans des endroits appropriés</t>
   </si>
   <si>
-    <t xml:space="preserve">#7</t>
+    <t xml:space="preserve">#11</t>
   </si>
   <si>
     <t xml:space="preserve">400 mots par pages</t>
@@ -671,7 +707,7 @@
 Utilisation font Cantarell car accessible</t>
   </si>
   <si>
-    <t xml:space="preserve">#8</t>
+    <t xml:space="preserve">#12</t>
   </si>
   <si>
     <t xml:space="preserve">Accessibilité et SEO</t>
@@ -748,7 +784,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">#9</t>
+    <t xml:space="preserve">#13</t>
   </si>
   <si>
     <t xml:space="preserve">optimiser le code</t>
@@ -760,85 +796,50 @@
     <t xml:space="preserve">Corriger le code html </t>
   </si>
   <si>
-    <t xml:space="preserve">#10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmenter taille des polices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de balise meta robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajouter une balise leta robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L10 : appelle fichier qui n’existe pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modifier le lien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cela va améliorer le temps de chargement et le responsive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head : lang=default + P2 L71 : le message d’erreur du formulaire est en anglais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déclarer la langue permet d’améliorer le référencement et permet aussi au nav d’adapter les polices.
-La langue utilisée dans les messages de retour du formulaire doivent être :
-- identique à la langue déclarée 
-- déclarée dans la balise parente si elle est différente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'utilité de l'étiquetage du langage est devenue évidente au cours des dernières années à mesure que les technologies ont évolué, évolution qui se poursuivra dans le futur. Dans bien des cas, ces applications peuvent ne pas être importantes à vos yeux lorsque vous créez votre contenu pour la première fois. Vous les apprécierez avec le temps. Cependant, c'est un cercle vicieux. Les personnes qui n'utilisent pas les applications de l'information du langage ne fournissent pas d'information sur la langue de contenu. Les applications liées au langage s'utilisent encore peu pour que l'information ne soit largement appliquée aux contenus. Cette situation peut être renversée par les auteurs de contenu lorsqu'ils assurent que l'information sur la langue est inéluctable. Plus il y a de contenu étiqueté convenablement, plus des applications utiles et convaincantes comme celles-ci seront appréciées. Il est en général facile d'ajouter de l'information sur la langue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traduire ce message</t>
-  </si>
-  <si>
     <t xml:space="preserve">BONUS</t>
   </si>
   <si>
-    <t xml:space="preserve">Mettre en place un outil de tracking comme Google Analytics ou Matomo (opensource) : permet de suivre l’interaction des internautes avec le site (temps passé par page, mots clés recherchés etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placer les JS en defer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sitemap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer une page mentions legales et cgu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer une page à propos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer page partenaire</t>
+    <t xml:space="preserve">Mettre en place un outil de tracking comme Google Analytics ou Matomo (opensource), Search Console </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permet de suivre l’interaction des internautes avec le site (temps passé par page, mots clés recherchés etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitemap XML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les sitemaps XML sont des cartes numériques qui aident Google à découvrir les pages importantes de votre site et leur fréquence de mises à jour.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer une page : - Mentions légales,
+                            - Partenaires
+                            - CGU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les mentions légales et CGU doivent impérativement être présentes sur un site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventuellement : Créer une page à propos</t>
   </si>
   <si>
     <t xml:space="preserve">Données structurées sur pages contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Paramétrer le cache</t>
+    <t xml:space="preserve">Le moteur de recherche de Google met tout en œuvre pour comprendre le contenu d'une page. Dans cette optique, vous pouvez nous fournir des informations claires sur la signification d'une page en y ajoutant des données structurées. Ces données structurées sont un format normalisé permettant de fournir des informations sur une page et de classer le contenu de cette page. Par exemple, sur une page de recette, il peut s'agir des ingrédients, du temps et de la température de cuisson, des calories, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramétrer le cache navigateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramétrer les en-têtes HTTP de vos ressources :
+    l'en-tête Cache-Control définit l'âge maximum d'une ressource (en secondes), c’est-à-dire la durée maximum pendant laquelle cette ressource est valable ;
+    l'en-tête Expires est utilisée pour spécifier un moment précis (une date) où la ressource n'est plus valide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;form id="form_1" novalidate success-msg="Votre message a bien été envoyé." fail-msg="Désolé, il semble que notre serveur de messagerie ne répond pas, veuillez nous excuser pour le désagrément!"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas bon, à modifier</t>
   </si>
   <si>
     <t xml:space="preserve">Balise title</t>
@@ -889,6 +890,29 @@
     <t xml:space="preserve">Sert à accepter ou non que le bot passe sur le site. On peut refuser que le bot passe quand : sécurité pour page en cours de créa, page « interdite » type administration du site car ne doit pas être indexée</t>
   </si>
   <si>
+    <t xml:space="preserve">https://fr.semrush.com/blog/trucs-astuces-guide-ultime-sitemaps-xml/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données structurées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com/search/docs/guides/intro-structured-data?hl=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cache navigateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mise en cache est le processus de stockage de données dans un cache, une zone de stockage de données temporaire et rapide, pour que celles-ci soient retrouvées plus rapidement et facilement par la suite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser les outils Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 outils sont indispensables à installer sur tout site web :
+    Google Analytics permet de tout savoir sur vos visiteurs ;
+    Google Search Console permet de suivre l'évolution de vos positions et de vos mots-clés dans les résultats de recherche Google.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Avant optimisation : </t>
   </si>
   <si>
@@ -958,78 +982,17 @@
     <t xml:space="preserve">balise meta, descrition</t>
   </si>
   <si>
-    <t xml:space="preserve">(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retirer les redirections inutiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balises h2 absentes, non ordonnées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balises sémantiques &lt;section&gt; abs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vérifier si taille adaptée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 et 2 trop grande / lourde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vérifier si besoin de compression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image txt : la retirer et l’écrire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vitesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optimisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Font-awesome.css : bcp de choses inutiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pas de pages coordonnées dédiées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">à créer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérifier pertinence mot clé (via </t>
-  </si>
-  <si>
-    <t xml:space="preserve">follow ou nofollow</t>
+    <t xml:space="preserve">mettre en forme paragraphe (typo trop petite) + oter transparence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="0.00\ %"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1134,6 +1097,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -1144,12 +1113,6 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1171,19 +1134,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
-        <bgColor rgb="FFB7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81ACA6"/>
+        <bgColor rgb="FF9FC5E8"/>
       </patternFill>
     </fill>
     <fill>
@@ -1195,7 +1158,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF81ACA6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1217,7 +1180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1240,9 +1203,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1251,20 +1214,6 @@
       <right style="hair"/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1284,22 +1233,8 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="hair"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1328,7 +1263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1361,48 +1296,52 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1413,19 +1352,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1433,7 +1372,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1441,19 +1380,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1465,7 +1396,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1473,35 +1404,35 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1509,11 +1440,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1521,44 +1452,36 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1595,7 +1518,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB7E1CD"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
@@ -1604,7 +1527,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF2A6099"/>
-      <rgbColor rgb="FFCFE2F3"/>
+      <rgbColor rgb="FFB7E1CD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1628,7 +1551,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF81ACA6"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1653,9 +1576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
+      <xdr:colOff>135720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1664,13 +1587,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="35197" t="404" r="35219" b="0"/>
+        <a:srcRect l="35203" t="404" r="35225" b="0"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26280" y="0"/>
-          <a:ext cx="668520" cy="696600"/>
+          <a:ext cx="668160" cy="696240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,9 +1619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1707,13 +1630,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="35197" t="404" r="35219" b="0"/>
+        <a:srcRect l="35203" t="404" r="35225" b="0"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="360"/>
-          <a:ext cx="650520" cy="685080"/>
+          <a:ext cx="650160" cy="684720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1739,9 +1662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
+      <xdr:colOff>7200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1750,13 +1673,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="35197" t="404" r="35219" b="0"/>
+        <a:srcRect l="35203" t="404" r="35225" b="0"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="668880" cy="710280"/>
+          <a:ext cx="668520" cy="709920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1782,9 +1705,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>738360</xdr:colOff>
+      <xdr:colOff>738000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1798,7 +1721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="812880"/>
-          <a:ext cx="5609880" cy="3296880"/>
+          <a:ext cx="5609520" cy="3296520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1819,9 +1742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>785160</xdr:colOff>
+      <xdr:colOff>784800</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1835,7 +1758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9542880"/>
-          <a:ext cx="6469560" cy="5414400"/>
+          <a:ext cx="6469200" cy="5414040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1856,9 +1779,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>800280</xdr:colOff>
+      <xdr:colOff>799920</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1872,7 +1795,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4690800"/>
-          <a:ext cx="6484680" cy="4485960"/>
+          <a:ext cx="6484320" cy="4485600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1892,13 +1815,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F109"/>
+  <dimension ref="B1:F110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
@@ -2057,7 +1980,7 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="14" t="n">
@@ -2069,7 +1992,7 @@
       <c r="E22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="12"/>
@@ -2111,7 +2034,7 @@
       <c r="E27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="9"/>
@@ -2119,7 +2042,7 @@
       <c r="E28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="15"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="12"/>
@@ -2141,60 +2064,69 @@
       <c r="E31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="12"/>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+    </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2264,6 +2196,7 @@
     <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="62">
     <mergeCell ref="B8:B9"/>
@@ -2316,20 +2249,20 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:B35 C8:E9">
+  <conditionalFormatting sqref="B36 C8:E9 B8:B34">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
@@ -2350,10 +2283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E53"/>
+  <dimension ref="A2:E52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2380,19 +2313,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="s">
-        <v>26</v>
+      <c r="B7" s="21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>6</v>
@@ -2405,400 +2338,388 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>32</v>
       </c>
+      <c r="D11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="C12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="22"/>
+      <c r="B13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="22"/>
+      <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="C15" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="22"/>
+      <c r="B16" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="C18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="18.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="22"/>
+      <c r="B19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="24" t="s">
+      <c r="B21" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="C21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="22"/>
+      <c r="B22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="22"/>
+      <c r="B23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="22"/>
+      <c r="B24" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="22"/>
+      <c r="B25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="B26" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="C26" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="22"/>
+      <c r="B27" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="22"/>
+      <c r="B28" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="C29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="22"/>
+      <c r="B30" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="22"/>
+      <c r="B31" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="22"/>
+      <c r="B32" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="22"/>
+      <c r="B33" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="22"/>
+      <c r="B34" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="22"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="22"/>
+      <c r="A36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -2806,32 +2727,32 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E36"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E11:E35"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:E9">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -2856,18 +2777,18 @@
   </sheetPr>
   <dimension ref="B1:F90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="6" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="6" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2888,18 +2809,18 @@
     <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" s="1" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="27"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="27"/>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
@@ -2922,298 +2843,298 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>32</v>
+      <c r="E13" s="23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="22"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="22"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="16"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="22"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="22"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3337,116 +3258,114 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW65"/>
+  <dimension ref="A1:AW63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="57.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="32" width="60.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="32" width="56.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="32" width="38.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="33" width="12.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="8" style="33" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="50" style="32" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="4.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="57.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="31" width="60.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="31" width="56.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="31" width="38.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="32" width="12.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="8" style="32" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="50" style="31" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+    <row r="3" customFormat="false" ht="151.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="124.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" customFormat="false" ht="174.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>143</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>65</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>144</v>
@@ -3457,357 +3376,332 @@
       <c r="E5" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="38" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="124.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
+    <row r="6" customFormat="false" ht="128.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
+    <row r="7" customFormat="false" ht="93.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="40" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="124.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="40" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="F9" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="F9" s="39"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
+      <c r="E10" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="38" t="s">
+      <c r="F10" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+    </row>
+    <row r="11" customFormat="false" ht="93.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="38" t="s">
+      <c r="A12" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" customFormat="false" ht="169.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" s="46" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32"/>
+      <c r="B16" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="C16" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="D16" s="45"/>
+      <c r="E16" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
+    </row>
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" customFormat="false" ht="35.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="48" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="15" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="44"/>
-    </row>
-    <row r="16" s="47" customFormat="true" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33"/>
-      <c r="B16" s="45" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="48" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="32"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="48" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="48" t="s">
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="48" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="48" t="s">
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
+    </row>
+    <row r="25" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="49" t="s">
+    </row>
+    <row r="26" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-    </row>
-    <row r="24" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="27" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B16:B23"/>
+  <mergeCells count="8">
+    <mergeCell ref="B16:B21"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3824,87 +3718,113 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="140.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="52" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="52" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
+      <c r="B3" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="52" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="52" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
+      <c r="B4" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="52" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="52" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
+      <c r="B5" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="52" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="52" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
+      <c r="B6" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="52" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="52" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="s">
+      <c r="B7" s="51" t="s">
         <v>212</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="52"/>
-    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="52"/>
+      <c r="A10" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3924,7 +3844,7 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3939,25 +3859,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
       <c r="H1" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3980,13 +3900,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.88"/>
@@ -3994,289 +3914,96 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.04"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="E7" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="E9" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="E10" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="57" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
